--- a/biology/Médecine/Jean_Watson/Jean_Watson.xlsx
+++ b/biology/Médecine/Jean_Watson/Jean_Watson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Watson, née le 21 juillet 1940[1], est professeur émérite en sciences infirmières, titulaire de la chaire Murchinson Scoville depuis 1999 en sciences du caring à l'université du Colorado à Denver, et des sciences de la santé. Elle est la fondatrice du Center for Human Caring au Colorado et est membre de l’Académie américaine de soins infirmiers. Elle a occupé le poste de doyenne de la Faculté des sciences infirmières à l'Université Health Sciences Center, et est l'ancienne présidente de la Ligue nationale de soins infirmiers.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Watson, née le 21 juillet 1940, est professeur émérite en sciences infirmières, titulaire de la chaire Murchinson Scoville depuis 1999 en sciences du caring à l'université du Colorado à Denver, et des sciences de la santé. Elle est la fondatrice du Center for Human Caring au Colorado et est membre de l’Académie américaine de soins infirmiers. Elle a occupé le poste de doyenne de la Faculté des sciences infirmières à l'Université Health Sciences Center, et est l'ancienne présidente de la Ligue nationale de soins infirmiers.
 Jean Watson est connue pour un concept de soin infirmier, « Le Caring », qui a été intégré  dans la formation et les soins au patient dans des centaines d'écoles d'infirmiers à travers le monde.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Watson, née le 10 juin 1940 à Williamson, Virginie-Occidentale, est la benjamine de huit enfants. À l'âge de 10 ans, en voyant une amie de sa sœur aînée avoir des convulsions, elle sait qu'elle veut devenir infirmière [2]. Elle suit les cours de la Lewis Gale School of Nursing de Roanoke, Virginie et obtient son diplôme en 1961[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Watson, née le 10 juin 1940 à Williamson, Virginie-Occidentale, est la benjamine de huit enfants. À l'âge de 10 ans, en voyant une amie de sa sœur aînée avoir des convulsions, elle sait qu'elle veut devenir infirmière . Elle suit les cours de la Lewis Gale School of Nursing de Roanoke, Virginie et obtient son diplôme en 1961. 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Le Caring</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Watson a développé le concept de soin infirmier humain qui englobe une approche holistique dans le traitement des patients, une démarche plus volontaire, attentionnée et une relation personnelle plus profonde [4]. Le concept de Jean Watson a été influencé par plusieurs philosophes et penseurs tel que Abraham Maslow, Carl Rogers et Pierre Telhard de Chardin, tous pionniers dans le domaine des relations transpersonnelles. Jean Watson définit elle-même la relation transpersonnelle comme "une relation inter-subjective d'humain à humain dans laquelle l'infirmière touche et est touchée par l'autre. Les deux personnes sont complètement dans l'instant et se sentent unies l'une à l'autre" [5]. Les quatre piliers de la science du "prendre soin" sont la santé, le soin, la société ou environnement et l'être humain.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Watson a développé le concept de soin infirmier humain qui englobe une approche holistique dans le traitement des patients, une démarche plus volontaire, attentionnée et une relation personnelle plus profonde . Le concept de Jean Watson a été influencé par plusieurs philosophes et penseurs tel que Abraham Maslow, Carl Rogers et Pierre Telhard de Chardin, tous pionniers dans le domaine des relations transpersonnelles. Jean Watson définit elle-même la relation transpersonnelle comme "une relation inter-subjective d'humain à humain dans laquelle l'infirmière touche et est touchée par l'autre. Les deux personnes sont complètement dans l'instant et se sentent unies l'une à l'autre" . Les quatre piliers de la science du "prendre soin" sont la santé, le soin, la société ou environnement et l'être humain.
 Santé : connexion entre l'esprit, le corps et l'âme
 Société : valeur que la société accorde aux individus suivant la manière dont ils devraient se comporter dans la vie
 Soin : science du soin infirmier et médical, incluant des interactions avec le personnel soignant et les patients
-Être humain : personne valorisée, respectée, soignée pleine et entière [6].
+Être humain : personne valorisée, respectée, soignée pleine et entière .
 En outre, Watson fonde, en 2008, l'organisation à but non lucratif appelée le Watson Caring Science Institute.
 </t>
         </is>
@@ -579,9 +595,11 @@
           <t>Carrière et réalisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">professeur émérite en sciences infirmières, titulaire de la chaire Murchinson Scoville en sciences du caring à l'université du Colorado à Denver [7], Jean Watson a occupé le poste de doyen de la Faculté des sciences infirmières à l'Université Health Sciences Center. Elle est également l'ancienne présidente de la Ligue nationale de soins infirmiers.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">professeur émérite en sciences infirmières, titulaire de la chaire Murchinson Scoville en sciences du caring à l'université du Colorado à Denver , Jean Watson a occupé le poste de doyen de la Faculté des sciences infirmières à l'Université Health Sciences Center. Elle est également l'ancienne présidente de la Ligue nationale de soins infirmiers.
 </t>
         </is>
       </c>
@@ -610,12 +628,14 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean Watson a été récompensée par dix doctorats honorifiques dont huit titres internationaux. Elle a obtenu de nombreuses récompenses parmi lesquelles on peut citer :
 Fetzer Institute Prix Norman Cousins
 Prix Fulbright pour ses recherches
-2013 : Titre de "living legend of American Academy of Nursing" pour ses contributions à la profession [8].</t>
+2013 : Titre de "living legend of American Academy of Nursing" pour ses contributions à la profession .</t>
         </is>
       </c>
     </row>
